--- a/python/two/night SD t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night SD t1=6 t2=3 δ=0.95.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>4.73e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34e-07</t>
+          <t>1280.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.07e+00</t>
+          <t>5.90e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0695</t>
+          <t>0.0393</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.55e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>1690.0</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.55e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.08e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>1710.0</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.06e-01</t>
+          <t>3.93e-04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000281</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.89e-01</t>
+          <t>9.98e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>677.0</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.04e-11</t>
+          <t>4.54e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.57e-06</t>
+          <t>6.89e-06</t>
         </is>
       </c>
     </row>
